--- a/Code/PublicManager/PublicManager/汇总数据表.xlsx
+++ b/Code/PublicManager/PublicManager/汇总数据表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="172">
   <si>
     <t>中文名</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -649,6 +649,10 @@
   </si>
   <si>
     <t>nvarchar(700)</t>
+  </si>
+  <si>
+    <t>nvarchar(300)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1175,7 +1179,7 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1814,7 +1818,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1956,7 +1960,7 @@
         <v>167</v>
       </c>
       <c r="C10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1969,7 +1973,7 @@
         <v>168</v>
       </c>
       <c r="C11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1982,7 +1986,7 @@
         <v>169</v>
       </c>
       <c r="C12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>

--- a/Code/PublicManager/PublicManager/汇总数据表.xlsx
+++ b/Code/PublicManager/PublicManager/汇总数据表.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="索引表(Catalog)" sheetId="1" r:id="rId1"/>
     <sheet name="项目表(Project)" sheetId="2" r:id="rId2"/>
     <sheet name="课题表(Subject)" sheetId="3" r:id="rId3"/>
     <sheet name="人员表(Person)" sheetId="4" r:id="rId4"/>
+    <sheet name="字典表(Dicts)" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="193">
   <si>
     <t>中文名</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -651,7 +652,90 @@
     <t>nvarchar(700)</t>
   </si>
   <si>
-    <t>nvarchar(300)</t>
+    <t>项目编号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究周期</t>
+  </si>
+  <si>
+    <t>ProjectNumber</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TotalTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Telephone</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mobilephone</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员表ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DictID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DictName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DictValue</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DictTag</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(700)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>父节点ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParentDictID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DictType</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1176,10 +1260,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1339,38 +1423,38 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="2"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" t="s">
+        <v>175</v>
+      </c>
+      <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>23</v>
@@ -1378,90 +1462,90 @@
       <c r="E15" s="2"/>
       <c r="F15" s="1"/>
     </row>
+    <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="1"/>
+    </row>
     <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="1"/>
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>26</v>
@@ -1471,10 +1555,10 @@
     </row>
     <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>26</v>
@@ -1484,10 +1568,10 @@
     </row>
     <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>26</v>
@@ -1497,10 +1581,10 @@
     </row>
     <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>26</v>
@@ -1510,10 +1594,10 @@
     </row>
     <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>26</v>
@@ -1523,10 +1607,10 @@
     </row>
     <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>26</v>
@@ -1536,10 +1620,10 @@
     </row>
     <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>26</v>
@@ -1549,10 +1633,10 @@
     </row>
     <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>26</v>
@@ -1562,10 +1646,10 @@
     </row>
     <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>26</v>
@@ -1575,10 +1659,10 @@
     </row>
     <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>26</v>
@@ -1588,10 +1672,10 @@
     </row>
     <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>26</v>
@@ -1601,10 +1685,10 @@
     </row>
     <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>26</v>
@@ -1614,10 +1698,10 @@
     </row>
     <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>26</v>
@@ -1627,10 +1711,10 @@
     </row>
     <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>26</v>
@@ -1640,10 +1724,10 @@
     </row>
     <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>26</v>
@@ -1653,10 +1737,10 @@
     </row>
     <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>26</v>
@@ -1666,10 +1750,10 @@
     </row>
     <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>26</v>
@@ -1679,10 +1763,10 @@
     </row>
     <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>26</v>
@@ -1692,10 +1776,10 @@
     </row>
     <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>26</v>
@@ -1705,10 +1789,10 @@
     </row>
     <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>26</v>
@@ -1718,10 +1802,10 @@
     </row>
     <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>26</v>
@@ -1731,10 +1815,10 @@
     </row>
     <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>26</v>
@@ -1744,10 +1828,10 @@
     </row>
     <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>26</v>
@@ -1757,10 +1841,10 @@
     </row>
     <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>26</v>
@@ -1770,10 +1854,10 @@
     </row>
     <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>26</v>
@@ -1783,10 +1867,10 @@
     </row>
     <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>26</v>
@@ -1796,16 +1880,42 @@
     </row>
     <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1817,8 +1927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1960,7 +2070,7 @@
         <v>167</v>
       </c>
       <c r="C10" t="s">
-        <v>171</v>
+        <v>27</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1973,7 +2083,7 @@
         <v>168</v>
       </c>
       <c r="C11" t="s">
-        <v>171</v>
+        <v>27</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1986,7 +2096,7 @@
         <v>169</v>
       </c>
       <c r="C12" t="s">
-        <v>171</v>
+        <v>27</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -2004,10 +2114,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2219,77 +2329,77 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E17" s="2"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>177</v>
+      </c>
+      <c r="B17" t="s">
+        <v>179</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>26</v>
+        <v>146</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>26</v>
+        <v>146</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>26</v>
@@ -2299,19 +2409,216 @@
     </row>
     <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>
--- a/Code/PublicManager/PublicManager/汇总数据表.xlsx
+++ b/Code/PublicManager/PublicManager/汇总数据表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="704" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="索引表(Catalog)" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,15 @@
     <sheet name="课题表(Subject)" sheetId="3" r:id="rId3"/>
     <sheet name="人员表(Person)" sheetId="4" r:id="rId4"/>
     <sheet name="字典表(Dicts)" sheetId="5" r:id="rId5"/>
+    <sheet name="研究进度安排（WorkStep）" sheetId="6" r:id="rId6"/>
+    <sheet name="经费拨付约定(MoneySends)" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="211">
   <si>
     <t>中文名</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -736,6 +738,72 @@
   </si>
   <si>
     <t>DictType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>阶段目标与研究内容</t>
+  </si>
+  <si>
+    <t>阶段成果考核方式</t>
+  </si>
+  <si>
+    <t>拨付条件</t>
+  </si>
+  <si>
+    <t>预计时间</t>
+  </si>
+  <si>
+    <t>经费金额</t>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WSID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>money</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DestAndContent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResultMethod</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SendRule</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WillTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemoText</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1928,7 +1996,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2116,8 +2184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2449,6 +2517,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
@@ -2457,7 +2526,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2621,4 +2690,202 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Code/PublicManager/PublicManager/汇总数据表.xlsx
+++ b/Code/PublicManager/PublicManager/汇总数据表.xlsx
@@ -12,7 +12,7 @@
     <sheet name="课题表(Subject)" sheetId="3" r:id="rId3"/>
     <sheet name="人员表(Person)" sheetId="4" r:id="rId4"/>
     <sheet name="字典表(Dicts)" sheetId="5" r:id="rId5"/>
-    <sheet name="研究进度安排（WorkStep）" sheetId="6" r:id="rId6"/>
+    <sheet name="研究进度安排（WorkSteps）" sheetId="6" r:id="rId6"/>
     <sheet name="经费拨付约定(MoneySends)" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -783,10 +783,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Time</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>DestAndContent</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -804,6 +800,10 @@
   </si>
   <si>
     <t>MemoText</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkTime</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2697,7 +2697,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2745,7 +2745,7 @@
         <v>193</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C3" t="s">
         <v>203</v>
@@ -2758,7 +2758,7 @@
         <v>194</v>
       </c>
       <c r="B4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C4" t="s">
         <v>107</v>
@@ -2771,7 +2771,7 @@
         <v>195</v>
       </c>
       <c r="B5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C5" t="s">
         <v>107</v>
@@ -2791,11 +2791,12 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2837,7 +2838,7 @@
         <v>196</v>
       </c>
       <c r="B3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C3" t="s">
         <v>107</v>
@@ -2850,7 +2851,7 @@
         <v>197</v>
       </c>
       <c r="B4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C4" t="s">
         <v>203</v>
@@ -2876,7 +2877,7 @@
         <v>199</v>
       </c>
       <c r="B6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C6" t="s">
         <v>107</v>
@@ -2887,5 +2888,6 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/Code/PublicManager/PublicManager/汇总数据表.xlsx
+++ b/Code/PublicManager/PublicManager/汇总数据表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="211">
   <si>
     <t>中文名</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1996,7 +1996,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="A4" activeCellId="1" sqref="A3:XFD3 A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2694,10 +2694,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2742,42 +2742,68 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>193</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>203</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>194</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>205</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B5" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>203</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2788,10 +2814,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2835,55 +2861,81 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>196</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>207</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>197</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>203</v>
+        <v>6</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>207</v>
       </c>
       <c r="C5" t="s">
-        <v>204</v>
+        <v>107</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>203</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Code/PublicManager/PublicManager/汇总数据表.xlsx
+++ b/Code/PublicManager/PublicManager/汇总数据表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="704" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="704" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="索引表(Catalog)" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,15 @@
     <sheet name="字典表(Dicts)" sheetId="5" r:id="rId5"/>
     <sheet name="研究进度安排（WorkSteps）" sheetId="6" r:id="rId6"/>
     <sheet name="经费拨付约定(MoneySends)" sheetId="7" r:id="rId7"/>
+    <sheet name="课题经费分配(SubjectMoneys)" sheetId="8" r:id="rId8"/>
+    <sheet name="单位经费分配(UnitMoneys)" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="219">
   <si>
     <t>中文名</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -804,6 +806,38 @@
   </si>
   <si>
     <t>WorkTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mname</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mvalue</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(300)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(300)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitName</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -910,11 +944,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -2526,7 +2561,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2816,8 +2851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2942,4 +2977,241 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Code/PublicManager/PublicManager/汇总数据表.xlsx
+++ b/Code/PublicManager/PublicManager/汇总数据表.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="223">
   <si>
     <t>中文名</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -817,14 +817,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Mname</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mvalue</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>nvarchar(300)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -838,6 +830,30 @@
   </si>
   <si>
     <t>UnitName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMValue</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UMID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UMName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UMValue</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2984,7 +3000,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD7"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3018,7 +3034,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -3070,10 +3086,10 @@
         <v>211</v>
       </c>
       <c r="B6" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -3083,10 +3099,10 @@
         <v>212</v>
       </c>
       <c r="B7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -3103,7 +3119,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3137,7 +3153,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -3173,13 +3189,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -3189,10 +3205,10 @@
         <v>211</v>
       </c>
       <c r="B6" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -3202,10 +3218,10 @@
         <v>212</v>
       </c>
       <c r="B7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>

--- a/Code/PublicManager/PublicManager/汇总数据表.xlsx
+++ b/Code/PublicManager/PublicManager/汇总数据表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="704" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="704" firstSheet="8" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="索引表(Catalog)" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,18 @@
     <sheet name="经费拨付约定(MoneySends)" sheetId="7" r:id="rId7"/>
     <sheet name="课题经费分配(SubjectMoneys)" sheetId="8" r:id="rId8"/>
     <sheet name="单位经费分配(UnitMoneys)" sheetId="9" r:id="rId9"/>
+    <sheet name="项目基本情况(Contact_Table1)" sheetId="10" r:id="rId10"/>
+    <sheet name="项目办公室组成(Contact_Table2)" sheetId="11" r:id="rId11"/>
+    <sheet name="项目完成情况(Contact_Table3)" sheetId="12" r:id="rId12"/>
+    <sheet name="项目经费使用情况(Contact_Table4)" sheetId="13" r:id="rId13"/>
+    <sheet name="课题经费拨付与支出情况(Contact_Table5)" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="259">
   <si>
     <t>中文名</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -854,6 +859,136 @@
   </si>
   <si>
     <t>UMValue</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目牵头单位</t>
+  </si>
+  <si>
+    <t>项目总负责人</t>
+  </si>
+  <si>
+    <t>项目总经费</t>
+  </si>
+  <si>
+    <t>项目到位经费</t>
+  </si>
+  <si>
+    <t>项目办公室职务</t>
+  </si>
+  <si>
+    <t>单位</t>
+  </si>
+  <si>
+    <t>联系电话</t>
+  </si>
+  <si>
+    <t>课题负责单位</t>
+  </si>
+  <si>
+    <t>课题合同总价款</t>
+  </si>
+  <si>
+    <t>课题应拨经费</t>
+  </si>
+  <si>
+    <t>课题经费拨付时间</t>
+  </si>
+  <si>
+    <t>课题已拨经费</t>
+  </si>
+  <si>
+    <t>课题支出经费</t>
+  </si>
+  <si>
+    <t>课题应拨未拨经费</t>
+  </si>
+  <si>
+    <t>WorkUnit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectMaster</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TotalMoney</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TotalMoneyNow</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(300)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>money</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PersonName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PersonJob</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PersonUnit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkDeskJob</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PersonPhone</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModuleName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModuleValue</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubjectWorkUnit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubjectTotalMoney</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubjectSendMoney</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubjectSendTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubjectSendedMoney</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubjectUseMoney</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubjectNoSendMoney</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>money</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1377,6 +1512,678 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C7" t="s">
+        <v>257</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C9" t="s">
+        <v>258</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>234</v>
+      </c>
+      <c r="B10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>235</v>
+      </c>
+      <c r="B11" t="s">
+        <v>255</v>
+      </c>
+      <c r="C11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B12" t="s">
+        <v>256</v>
+      </c>
+      <c r="C12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G51"/>
@@ -2868,7 +3675,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:XFD4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3000,7 +3807,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A6" sqref="A6:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3118,8 +3925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Code/PublicManager/PublicManager/汇总数据表.xlsx
+++ b/Code/PublicManager/PublicManager/汇总数据表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="704" firstSheet="8" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="704" firstSheet="11" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="索引表(Catalog)" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="260">
   <si>
     <t>中文名</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -989,6 +989,10 @@
   </si>
   <si>
     <t>datetime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1516,8 +1520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1552,7 +1556,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>220</v>
+        <v>259</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -1650,7 +1654,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1685,7 +1689,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>220</v>
+        <v>259</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -1795,7 +1799,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD6"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1829,7 +1833,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>220</v>
+        <v>259</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -1900,7 +1904,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1934,7 +1938,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>220</v>
+        <v>259</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -2004,8 +2008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2040,7 +2044,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>220</v>
+        <v>259</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>

--- a/Code/PublicManager/PublicManager/汇总数据表.xlsx
+++ b/Code/PublicManager/PublicManager/汇总数据表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="704" firstSheet="11" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="704" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="索引表(Catalog)" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="264">
   <si>
     <t>中文名</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -993,6 +993,21 @@
   </si>
   <si>
     <t>TID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目领域</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划批次</t>
+  </si>
+  <si>
+    <t>ProjectRange</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TaskNumber</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1000,7 +1015,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1038,6 +1053,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1099,12 +1121,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -1415,13 +1438,13 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1441,7 +1464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1454,7 +1477,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1467,7 +1490,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1480,7 +1503,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1496,7 +1519,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>157</v>
       </c>
@@ -1524,14 +1547,14 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1551,7 +1574,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1564,7 +1587,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1577,7 +1600,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>104</v>
       </c>
@@ -1590,7 +1613,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>223</v>
       </c>
@@ -1603,7 +1626,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>224</v>
       </c>
@@ -1616,7 +1639,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>225</v>
       </c>
@@ -1629,7 +1652,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>226</v>
       </c>
@@ -1657,14 +1680,14 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1684,7 +1707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1697,7 +1720,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1710,7 +1733,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>104</v>
       </c>
@@ -1723,7 +1746,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>227</v>
       </c>
@@ -1736,7 +1759,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>115</v>
       </c>
@@ -1749,7 +1772,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>228</v>
       </c>
@@ -1762,7 +1785,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>118</v>
       </c>
@@ -1775,7 +1798,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>229</v>
       </c>
@@ -1802,13 +1825,13 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1828,7 +1851,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1841,7 +1864,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1854,7 +1877,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>104</v>
       </c>
@@ -1867,7 +1890,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>182</v>
       </c>
@@ -1880,7 +1903,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>183</v>
       </c>
@@ -1907,13 +1930,13 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1933,7 +1956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1946,7 +1969,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1959,7 +1982,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>104</v>
       </c>
@@ -1972,7 +1995,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>182</v>
       </c>
@@ -1985,7 +2008,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>183</v>
       </c>
@@ -2008,18 +2031,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2039,7 +2062,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2052,7 +2075,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -2065,7 +2088,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>104</v>
       </c>
@@ -2078,7 +2101,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>114</v>
       </c>
@@ -2091,7 +2114,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>230</v>
       </c>
@@ -2104,7 +2127,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>231</v>
       </c>
@@ -2117,7 +2140,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>232</v>
       </c>
@@ -2130,7 +2153,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>233</v>
       </c>
@@ -2143,7 +2166,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>234</v>
       </c>
@@ -2156,7 +2179,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>235</v>
       </c>
@@ -2169,7 +2192,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>236</v>
       </c>
@@ -2190,20 +2213,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.25" customWidth="1"/>
     <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2223,7 +2246,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2236,7 +2259,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -2249,7 +2272,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -2262,7 +2285,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -2275,7 +2298,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -2288,7 +2311,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>160</v>
       </c>
@@ -2301,7 +2324,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>162</v>
       </c>
@@ -2314,7 +2337,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>164</v>
       </c>
@@ -2327,7 +2350,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>165</v>
       </c>
@@ -2340,7 +2363,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>166</v>
       </c>
@@ -2353,7 +2376,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>171</v>
       </c>
@@ -2366,7 +2389,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>172</v>
       </c>
@@ -2379,38 +2402,38 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
+    <row r="14" spans="1:7">
+      <c r="A14" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B14" t="s">
+        <v>262</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="17" spans="1:6" s="3" customFormat="1">
+      <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>23</v>
@@ -2418,90 +2441,90 @@
       <c r="E17" s="2"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" s="3" customFormat="1">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" s="3" customFormat="1">
       <c r="A19" s="3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E19" s="2"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="21" spans="1:6" s="3" customFormat="1">
       <c r="A21" s="3" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" s="3" customFormat="1">
       <c r="A22" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" s="3" customFormat="1">
       <c r="A23" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" s="3" customFormat="1">
       <c r="A24" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" s="3" customFormat="1">
       <c r="A25" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>26</v>
@@ -2509,12 +2532,12 @@
       <c r="E25" s="1"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" s="3" customFormat="1">
       <c r="A26" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>26</v>
@@ -2522,12 +2545,12 @@
       <c r="E26" s="1"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" s="3" customFormat="1">
       <c r="A27" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>26</v>
@@ -2535,12 +2558,12 @@
       <c r="E27" s="1"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" s="3" customFormat="1">
       <c r="A28" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>26</v>
@@ -2548,12 +2571,12 @@
       <c r="E28" s="1"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" s="3" customFormat="1">
       <c r="A29" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>26</v>
@@ -2561,12 +2584,12 @@
       <c r="E29" s="1"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" s="3" customFormat="1">
       <c r="A30" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>26</v>
@@ -2574,12 +2597,12 @@
       <c r="E30" s="1"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" s="3" customFormat="1">
       <c r="A31" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>26</v>
@@ -2587,12 +2610,12 @@
       <c r="E31" s="1"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" s="3" customFormat="1">
       <c r="A32" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>26</v>
@@ -2600,12 +2623,12 @@
       <c r="E32" s="1"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" s="3" customFormat="1">
       <c r="A33" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>26</v>
@@ -2613,12 +2636,12 @@
       <c r="E33" s="1"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" s="3" customFormat="1">
       <c r="A34" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>26</v>
@@ -2626,12 +2649,12 @@
       <c r="E34" s="1"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" s="3" customFormat="1">
       <c r="A35" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>26</v>
@@ -2639,12 +2662,12 @@
       <c r="E35" s="1"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" s="3" customFormat="1">
       <c r="A36" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>26</v>
@@ -2652,12 +2675,12 @@
       <c r="E36" s="1"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" s="3" customFormat="1">
       <c r="A37" s="3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>26</v>
@@ -2665,12 +2688,12 @@
       <c r="E37" s="1"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" s="3" customFormat="1">
       <c r="A38" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>26</v>
@@ -2678,12 +2701,12 @@
       <c r="E38" s="1"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" s="3" customFormat="1">
       <c r="A39" s="3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>26</v>
@@ -2691,12 +2714,12 @@
       <c r="E39" s="1"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" s="3" customFormat="1">
       <c r="A40" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>26</v>
@@ -2704,12 +2727,12 @@
       <c r="E40" s="1"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" s="3" customFormat="1">
       <c r="A41" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>26</v>
@@ -2717,12 +2740,12 @@
       <c r="E41" s="1"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" s="3" customFormat="1">
       <c r="A42" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>26</v>
@@ -2730,12 +2753,12 @@
       <c r="E42" s="1"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" s="3" customFormat="1">
       <c r="A43" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>26</v>
@@ -2743,12 +2766,12 @@
       <c r="E43" s="1"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" s="3" customFormat="1">
       <c r="A44" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>26</v>
@@ -2756,12 +2779,12 @@
       <c r="E44" s="1"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" s="3" customFormat="1">
       <c r="A45" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>26</v>
@@ -2769,12 +2792,12 @@
       <c r="E45" s="1"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" s="3" customFormat="1">
       <c r="A46" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>26</v>
@@ -2782,12 +2805,12 @@
       <c r="E46" s="1"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" s="3" customFormat="1">
       <c r="A47" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>26</v>
@@ -2795,12 +2818,12 @@
       <c r="E47" s="1"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" s="3" customFormat="1">
       <c r="A48" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>26</v>
@@ -2808,12 +2831,12 @@
       <c r="E48" s="1"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6" s="3" customFormat="1">
       <c r="A49" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>26</v>
@@ -2821,12 +2844,12 @@
       <c r="E49" s="1"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" s="3" customFormat="1">
       <c r="A50" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>26</v>
@@ -2834,22 +2857,49 @@
       <c r="E50" s="1"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6" s="3" customFormat="1">
       <c r="A51" s="3" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" s="3" customFormat="1">
+      <c r="A52" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:6" s="3" customFormat="1">
+      <c r="A53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
@@ -2861,14 +2911,14 @@
       <selection activeCell="A4" activeCellId="1" sqref="A3:XFD3 A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2888,7 +2938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2901,7 +2951,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -2914,7 +2964,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>104</v>
       </c>
@@ -2927,7 +2977,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>105</v>
       </c>
@@ -2940,7 +2990,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>108</v>
       </c>
@@ -2953,7 +3003,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>110</v>
       </c>
@@ -2966,7 +3016,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>111</v>
       </c>
@@ -2979,7 +3029,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>112</v>
       </c>
@@ -2992,7 +3042,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>164</v>
       </c>
@@ -3005,7 +3055,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>165</v>
       </c>
@@ -3018,7 +3068,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>166</v>
       </c>
@@ -3031,7 +3081,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="C15" t="s">
         <v>134</v>
       </c>
@@ -3050,14 +3100,14 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3077,7 +3127,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3090,7 +3140,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -3103,7 +3153,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>113</v>
       </c>
@@ -3116,7 +3166,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>114</v>
       </c>
@@ -3129,7 +3179,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>115</v>
       </c>
@@ -3142,7 +3192,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>116</v>
       </c>
@@ -3155,7 +3205,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>117</v>
       </c>
@@ -3168,7 +3218,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>118</v>
       </c>
@@ -3181,7 +3231,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>119</v>
       </c>
@@ -3194,7 +3244,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>120</v>
       </c>
@@ -3207,7 +3257,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>121</v>
       </c>
@@ -3220,7 +3270,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>122</v>
       </c>
@@ -3233,7 +3283,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>123</v>
       </c>
@@ -3246,7 +3296,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>135</v>
       </c>
@@ -3259,7 +3309,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>176</v>
       </c>
@@ -3272,7 +3322,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>177</v>
       </c>
@@ -3285,7 +3335,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="19" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" s="3" customFormat="1">
       <c r="A19" s="3" t="s">
         <v>141</v>
       </c>
@@ -3298,7 +3348,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" s="3" customFormat="1">
       <c r="A20" s="3" t="s">
         <v>144</v>
       </c>
@@ -3311,7 +3361,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" s="3" customFormat="1">
       <c r="A21" s="3" t="s">
         <v>147</v>
       </c>
@@ -3324,7 +3374,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" s="3" customFormat="1">
       <c r="A22" s="3" t="s">
         <v>149</v>
       </c>
@@ -3337,7 +3387,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" s="3" customFormat="1">
       <c r="A23" s="3" t="s">
         <v>151</v>
       </c>
@@ -3350,7 +3400,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" s="3" customFormat="1">
       <c r="A24" s="3" t="s">
         <v>153</v>
       </c>
@@ -3363,7 +3413,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" s="3" customFormat="1">
       <c r="A25" s="3" t="s">
         <v>155</v>
       </c>
@@ -3391,13 +3441,13 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3417,7 +3467,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3430,7 +3480,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -3443,7 +3493,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>104</v>
       </c>
@@ -3456,7 +3506,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>114</v>
       </c>
@@ -3469,7 +3519,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>180</v>
       </c>
@@ -3482,7 +3532,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>191</v>
       </c>
@@ -3495,7 +3545,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>182</v>
       </c>
@@ -3508,7 +3558,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>183</v>
       </c>
@@ -3521,7 +3571,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>184</v>
       </c>
@@ -3534,7 +3584,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>189</v>
       </c>
@@ -3562,14 +3612,14 @@
       <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3589,7 +3639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3602,7 +3652,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -3615,7 +3665,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>104</v>
       </c>
@@ -3628,7 +3678,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>193</v>
       </c>
@@ -3641,7 +3691,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>194</v>
       </c>
@@ -3654,7 +3704,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>195</v>
       </c>
@@ -3682,13 +3732,13 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3708,7 +3758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>200</v>
       </c>
@@ -3721,7 +3771,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -3734,7 +3784,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>104</v>
       </c>
@@ -3747,7 +3797,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>196</v>
       </c>
@@ -3760,7 +3810,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>197</v>
       </c>
@@ -3773,7 +3823,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>198</v>
       </c>
@@ -3786,7 +3836,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>199</v>
       </c>
@@ -3814,13 +3864,13 @@
       <selection activeCell="A6" sqref="A6:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3840,7 +3890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3853,7 +3903,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -3866,7 +3916,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>104</v>
       </c>
@@ -3879,7 +3929,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>114</v>
       </c>
@@ -3892,7 +3942,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>211</v>
       </c>
@@ -3905,7 +3955,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>212</v>
       </c>
@@ -3933,13 +3983,13 @@
       <selection sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3959,7 +4009,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3972,7 +4022,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -3985,7 +4035,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>104</v>
       </c>
@@ -3998,7 +4048,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>215</v>
       </c>
@@ -4011,7 +4061,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>211</v>
       </c>
@@ -4024,7 +4074,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>212</v>
       </c>

--- a/Code/PublicManager/PublicManager/汇总数据表.xlsx
+++ b/Code/PublicManager/PublicManager/汇总数据表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="276">
   <si>
     <t>中文名</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1008,6 +1008,48 @@
   </si>
   <si>
     <t>TaskNumber</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>立项选题评议</t>
+  </si>
+  <si>
+    <t>立项审核</t>
+  </si>
+  <si>
+    <t>立项复议</t>
+  </si>
+  <si>
+    <t>合同查查等级</t>
+  </si>
+  <si>
+    <t>合同审核等级</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>OKQuestionMemo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OKCheckA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OKCheckB</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContactCheckLevelA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContactCheckLevelB</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Memo</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2208,15 +2250,16 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2428,194 +2471,186 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="17" spans="1:6" s="3" customFormat="1">
-      <c r="A17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="2"/>
+    <row r="16" spans="1:7">
+      <c r="A16" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B16" t="s">
+        <v>270</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B17" t="s">
+        <v>271</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" s="3" customFormat="1">
-      <c r="A18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="2"/>
+    <row r="18" spans="1:6">
+      <c r="A18" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B18" t="s">
+        <v>272</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" s="3" customFormat="1">
-      <c r="A19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="2"/>
+    <row r="19" spans="1:6">
+      <c r="A19" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B19" t="s">
+        <v>273</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="21" spans="1:6" s="3" customFormat="1">
-      <c r="A21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>23</v>
+    <row r="20" spans="1:6">
+      <c r="A20" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B20" t="s">
+        <v>274</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B21" t="s">
+        <v>275</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
       </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" s="3" customFormat="1">
-      <c r="A22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="5"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" s="3" customFormat="1">
-      <c r="A23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="2"/>
+      <c r="F22" s="1"/>
     </row>
     <row r="24" spans="1:6" s="3" customFormat="1">
       <c r="A24" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" s="3" customFormat="1">
       <c r="A25" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" s="3" customFormat="1">
       <c r="A26" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" s="3" customFormat="1">
-      <c r="A27" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="1"/>
     </row>
     <row r="28" spans="1:6" s="3" customFormat="1">
       <c r="A28" s="3" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" s="3" customFormat="1">
       <c r="A29" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" s="3" customFormat="1">
       <c r="A30" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" s="3" customFormat="1">
       <c r="A31" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" s="3" customFormat="1">
       <c r="A32" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>26</v>
@@ -2625,10 +2660,10 @@
     </row>
     <row r="33" spans="1:6" s="3" customFormat="1">
       <c r="A33" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>26</v>
@@ -2638,10 +2673,10 @@
     </row>
     <row r="34" spans="1:6" s="3" customFormat="1">
       <c r="A34" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>26</v>
@@ -2651,10 +2686,10 @@
     </row>
     <row r="35" spans="1:6" s="3" customFormat="1">
       <c r="A35" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>26</v>
@@ -2664,10 +2699,10 @@
     </row>
     <row r="36" spans="1:6" s="3" customFormat="1">
       <c r="A36" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>26</v>
@@ -2677,10 +2712,10 @@
     </row>
     <row r="37" spans="1:6" s="3" customFormat="1">
       <c r="A37" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>26</v>
@@ -2690,10 +2725,10 @@
     </row>
     <row r="38" spans="1:6" s="3" customFormat="1">
       <c r="A38" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>26</v>
@@ -2703,10 +2738,10 @@
     </row>
     <row r="39" spans="1:6" s="3" customFormat="1">
       <c r="A39" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>26</v>
@@ -2716,10 +2751,10 @@
     </row>
     <row r="40" spans="1:6" s="3" customFormat="1">
       <c r="A40" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>26</v>
@@ -2729,10 +2764,10 @@
     </row>
     <row r="41" spans="1:6" s="3" customFormat="1">
       <c r="A41" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>26</v>
@@ -2742,10 +2777,10 @@
     </row>
     <row r="42" spans="1:6" s="3" customFormat="1">
       <c r="A42" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>26</v>
@@ -2755,10 +2790,10 @@
     </row>
     <row r="43" spans="1:6" s="3" customFormat="1">
       <c r="A43" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>26</v>
@@ -2768,10 +2803,10 @@
     </row>
     <row r="44" spans="1:6" s="3" customFormat="1">
       <c r="A44" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>26</v>
@@ -2781,10 +2816,10 @@
     </row>
     <row r="45" spans="1:6" s="3" customFormat="1">
       <c r="A45" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>26</v>
@@ -2794,10 +2829,10 @@
     </row>
     <row r="46" spans="1:6" s="3" customFormat="1">
       <c r="A46" s="3" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>26</v>
@@ -2807,10 +2842,10 @@
     </row>
     <row r="47" spans="1:6" s="3" customFormat="1">
       <c r="A47" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>26</v>
@@ -2820,10 +2855,10 @@
     </row>
     <row r="48" spans="1:6" s="3" customFormat="1">
       <c r="A48" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>26</v>
@@ -2833,10 +2868,10 @@
     </row>
     <row r="49" spans="1:6" s="3" customFormat="1">
       <c r="A49" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>26</v>
@@ -2846,10 +2881,10 @@
     </row>
     <row r="50" spans="1:6" s="3" customFormat="1">
       <c r="A50" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>26</v>
@@ -2859,10 +2894,10 @@
     </row>
     <row r="51" spans="1:6" s="3" customFormat="1">
       <c r="A51" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>26</v>
@@ -2872,10 +2907,10 @@
     </row>
     <row r="52" spans="1:6" s="3" customFormat="1">
       <c r="A52" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>26</v>
@@ -2885,16 +2920,107 @@
     </row>
     <row r="53" spans="1:6" s="3" customFormat="1">
       <c r="A53" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6" s="3" customFormat="1">
+      <c r="A54" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6" s="3" customFormat="1">
+      <c r="A55" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6" s="3" customFormat="1">
+      <c r="A56" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="1:6" s="3" customFormat="1">
+      <c r="A57" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6" s="3" customFormat="1">
+      <c r="A58" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6" s="3" customFormat="1">
+      <c r="A59" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6" s="3" customFormat="1">
+      <c r="A60" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Code/PublicManager/PublicManager/汇总数据表.xlsx
+++ b/Code/PublicManager/PublicManager/汇总数据表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="704" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="704" firstSheet="11" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="索引表(Catalog)" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="278">
   <si>
     <t>中文名</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1050,6 +1050,14 @@
   </si>
   <si>
     <t>Memo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NodeID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1583,10 +1591,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1657,23 +1665,23 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>223</v>
+        <v>276</v>
       </c>
       <c r="B5" t="s">
-        <v>237</v>
+        <v>277</v>
       </c>
       <c r="C5" t="s">
-        <v>241</v>
+        <v>6</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C6" t="s">
         <v>241</v>
@@ -1683,29 +1691,42 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C8" t="s">
         <v>242</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C9" t="s">
+        <v>242</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1716,10 +1737,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1790,23 +1811,23 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>227</v>
+        <v>276</v>
       </c>
       <c r="B5" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="C5" t="s">
-        <v>241</v>
+        <v>6</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>227</v>
       </c>
       <c r="B6" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C6" t="s">
         <v>241</v>
@@ -1816,23 +1837,23 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>228</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>241</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>228</v>
       </c>
       <c r="B8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
@@ -1842,16 +1863,29 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>229</v>
+        <v>118</v>
       </c>
       <c r="B9" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1861,10 +1895,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1934,29 +1968,42 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>276</v>
       </c>
       <c r="B5" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="C5" t="s">
-        <v>241</v>
+        <v>6</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C6" t="s">
         <v>241</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1966,10 +2013,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2039,29 +2086,42 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>276</v>
       </c>
       <c r="B5" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="C5" t="s">
-        <v>241</v>
+        <v>6</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C6" t="s">
         <v>241</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2071,10 +2131,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2145,10 +2205,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>276</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>277</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -2158,75 +2218,75 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>230</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
-        <v>250</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>241</v>
+        <v>6</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C7" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>257</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C9" t="s">
-        <v>258</v>
+        <v>109</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>258</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C11" t="s">
         <v>109</v>
@@ -2236,16 +2296,29 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C12" t="s">
         <v>109</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>236</v>
+      </c>
+      <c r="B13" t="s">
+        <v>256</v>
+      </c>
+      <c r="C13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2258,7 +2331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>

--- a/Code/PublicManager/PublicManager/汇总数据表.xlsx
+++ b/Code/PublicManager/PublicManager/汇总数据表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="704" firstSheet="11" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="704" firstSheet="11" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="索引表(Catalog)" sheetId="1" r:id="rId1"/>
@@ -1898,7 +1898,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2015,8 +2015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2133,7 +2133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>

--- a/Code/PublicManager/PublicManager/汇总数据表.xlsx
+++ b/Code/PublicManager/PublicManager/汇总数据表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="704" firstSheet="11" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="704" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="索引表(Catalog)" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="280">
   <si>
     <t>中文名</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1058,6 +1058,14 @@
   </si>
   <si>
     <t>NodeID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectName</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1591,10 +1599,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1678,23 +1686,23 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>223</v>
+        <v>278</v>
       </c>
       <c r="B6" t="s">
-        <v>237</v>
+        <v>279</v>
       </c>
       <c r="C6" t="s">
-        <v>241</v>
+        <v>133</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C7" t="s">
         <v>241</v>
@@ -1704,29 +1712,42 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C9" t="s">
         <v>242</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>226</v>
+      </c>
+      <c r="B10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C10" t="s">
+        <v>242</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2015,8 +2036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/Code/PublicManager/PublicManager/汇总数据表.xlsx
+++ b/Code/PublicManager/PublicManager/汇总数据表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="704" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="704" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="索引表(Catalog)" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="288">
   <si>
     <t>中文名</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1066,6 +1066,34 @@
   </si>
   <si>
     <t>ProjectName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NodeWillTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点的评估时间</t>
+  </si>
+  <si>
+    <t>评估意见</t>
+  </si>
+  <si>
+    <t>评估等级</t>
+  </si>
+  <si>
+    <t>评估专家</t>
+  </si>
+  <si>
+    <t>WillContent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WillLevel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WillWorker</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1601,7 +1629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
@@ -3946,16 +3974,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4068,6 +4096,58 @@
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>281</v>
+      </c>
+      <c r="B9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>282</v>
+      </c>
+      <c r="B10" t="s">
+        <v>285</v>
+      </c>
+      <c r="C10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>283</v>
+      </c>
+      <c r="B11" t="s">
+        <v>286</v>
+      </c>
+      <c r="C11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>284</v>
+      </c>
+      <c r="B12" t="s">
+        <v>287</v>
+      </c>
+      <c r="C12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Code/PublicManager/PublicManager/汇总数据表.xlsx
+++ b/Code/PublicManager/PublicManager/汇总数据表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="704" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="704" firstSheet="13" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="索引表(Catalog)" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,15 @@
     <sheet name="项目完成情况(Contact_Table3)" sheetId="12" r:id="rId12"/>
     <sheet name="项目经费使用情况(Contact_Table4)" sheetId="13" r:id="rId13"/>
     <sheet name="课题经费拨付与支出情况(Contact_Table5)" sheetId="14" r:id="rId14"/>
+    <sheet name="专家表(Teacher)" sheetId="15" r:id="rId15"/>
+    <sheet name="专家评审表(TeacherComment)" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="321">
   <si>
     <t>中文名</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -278,822 +280,939 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>Reporter_DirectionCode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contract_MoneyMode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contract_EndTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contract_StartTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contract_Number</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contract_SecretTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contract_Entrust_UnitName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contract_Entrust_UnitType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contract_Entrust_JuridicalPerson</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contract_Entrust_Linkman</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contract_Entrust_LinkmanTelephone</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contract_Entrust_Address</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contract_Entrust_ZipCode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contract_Entrust_OrgCode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contract_Entrust_DutyParagraph</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contract_Entrust_AccountName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contract_Entrust_AccountBank</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contract_Entrust_AccountNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contract_Entrust_MoneyPerson</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contract_Entrust_MoneyPersonTelephone</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contract_Undertake_UnitName</t>
+  </si>
+  <si>
+    <t>Contract_Undertake_UnitType</t>
+  </si>
+  <si>
+    <t>Contract_Undertake_JuridicalPerson</t>
+  </si>
+  <si>
+    <t>Contract_Undertake_Linkman</t>
+  </si>
+  <si>
+    <t>Contract_Undertake_LinkmanTelephone</t>
+  </si>
+  <si>
+    <t>Contract_Undertake_Address</t>
+  </si>
+  <si>
+    <t>Contract_Undertake_ZipCode</t>
+  </si>
+  <si>
+    <t>Contract_Undertake_OrgCode</t>
+  </si>
+  <si>
+    <t>Contract_Undertake_DutyParagraph</t>
+  </si>
+  <si>
+    <t>Contract_Undertake_AccountName</t>
+  </si>
+  <si>
+    <t>Contract_Undertake_AccountBank</t>
+  </si>
+  <si>
+    <t>Contract_Undertake_AccountNo</t>
+  </si>
+  <si>
+    <t>Contract_Undertake_MoneyPerson</t>
+  </si>
+  <si>
+    <t>Contract_Undertake_MoneyPersonTelephone</t>
+  </si>
+  <si>
+    <t>项目表ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubjectName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(700)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题金额</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>money</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究目标</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究内容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>参加单位分工</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目表ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>课题表ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>身份证号码</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>职务/职称</t>
+  </si>
+  <si>
+    <t>专业(技术方向)</t>
+  </si>
+  <si>
+    <t>每年投入时间（月）</t>
+  </si>
+  <si>
+    <t>任务分工</t>
+  </si>
+  <si>
+    <t>项目中职务</t>
+  </si>
+  <si>
+    <t>是否为项目负责人</t>
+  </si>
+  <si>
+    <t>nvarchar(100)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TaskContent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>JobInProject</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsProjectMaster</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PersonIDCard</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PersonSex</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PersonJob</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PersonSpecialty</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PersonName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(300)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(研究目标，研究内容等对于建议书来说存文件链接)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作单位名称</t>
+  </si>
+  <si>
+    <t>WorkUnit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TotalMoney</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkDest</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkContent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkTask</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生年月</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reporter_Birthday</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>座机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reporter_Telephone</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(300)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reporter_Mobilephone</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通信地址</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reporter_Address</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作单位通信地址</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reporter_WorkUnit_Address</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作单位联系人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reporter_WorkUnit_Linkman</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作单位联系电话</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reporter_WorkUnit_LinkmanTelephone</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CatalogType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CatalogVersion</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keywords</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属领域</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Domains</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责单位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责单位所属部门</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责单位所属地点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DutyUnit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DutyUnitOrg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DutyUnitAddress</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(700)</t>
+  </si>
+  <si>
+    <t>项目编号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究周期</t>
+  </si>
+  <si>
+    <t>ProjectNumber</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TotalTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Telephone</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mobilephone</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员表ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DictID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DictName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DictValue</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DictTag</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(700)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>父节点ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParentDictID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DictType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>阶段目标与研究内容</t>
+  </si>
+  <si>
+    <t>阶段成果考核方式</t>
+  </si>
+  <si>
+    <t>拨付条件</t>
+  </si>
+  <si>
+    <t>预计时间</t>
+  </si>
+  <si>
+    <t>经费金额</t>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WSID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>money</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DestAndContent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResultMethod</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SendRule</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WillTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemoText</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(300)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(300)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMValue</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UMID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UMName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UMValue</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目牵头单位</t>
+  </si>
+  <si>
+    <t>项目总负责人</t>
+  </si>
+  <si>
+    <t>项目总经费</t>
+  </si>
+  <si>
+    <t>项目到位经费</t>
+  </si>
+  <si>
+    <t>项目办公室职务</t>
+  </si>
+  <si>
+    <t>单位</t>
+  </si>
+  <si>
+    <t>联系电话</t>
+  </si>
+  <si>
+    <t>课题负责单位</t>
+  </si>
+  <si>
+    <t>课题合同总价款</t>
+  </si>
+  <si>
+    <t>课题应拨经费</t>
+  </si>
+  <si>
+    <t>课题经费拨付时间</t>
+  </si>
+  <si>
+    <t>课题已拨经费</t>
+  </si>
+  <si>
+    <t>课题支出经费</t>
+  </si>
+  <si>
+    <t>课题应拨未拨经费</t>
+  </si>
+  <si>
+    <t>WorkUnit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectMaster</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TotalMoney</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TotalMoneyNow</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(300)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>money</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PersonName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PersonJob</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PersonUnit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkDeskJob</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PersonPhone</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModuleName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModuleValue</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubjectWorkUnit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubjectTotalMoney</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubjectSendMoney</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubjectSendTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubjectSendedMoney</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubjectUseMoney</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubjectNoSendMoney</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>money</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目领域</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划批次</t>
+  </si>
+  <si>
+    <t>ProjectRange</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TaskNumber</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>立项选题评议</t>
+  </si>
+  <si>
+    <t>立项审核</t>
+  </si>
+  <si>
+    <t>立项复议</t>
+  </si>
+  <si>
+    <t>合同查查等级</t>
+  </si>
+  <si>
+    <t>合同审核等级</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>OKQuestionMemo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OKCheckA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OKCheckB</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContactCheckLevelA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContactCheckLevelB</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Memo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NodeID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NodeWillTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点的评估时间</t>
+  </si>
+  <si>
+    <t>评估意见</t>
+  </si>
+  <si>
+    <t>评估等级</t>
+  </si>
+  <si>
+    <t>评估专家</t>
+  </si>
+  <si>
+    <t>WillContent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WillLevel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WillWorker</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TeacherID</t>
+  </si>
+  <si>
+    <t>TName</t>
+  </si>
+  <si>
+    <t>TIDCard</t>
+  </si>
+  <si>
+    <t>TSex</t>
+  </si>
+  <si>
+    <t>TPhone</t>
+  </si>
+  <si>
+    <t>TJob</t>
+  </si>
+  <si>
+    <t>TUnit</t>
+  </si>
+  <si>
+    <t>TRange</t>
+  </si>
+  <si>
+    <t>[nvarchar(40)]</t>
+  </si>
+  <si>
+    <t>[nvarchar(500)]</t>
+  </si>
+  <si>
+    <t>TeacherCommentID</t>
+  </si>
+  <si>
+    <t>CommentDate</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>CommentText</t>
+  </si>
+  <si>
+    <t>[nvarchar(1000)]</t>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>职务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>领域</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>专家ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>评审日期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>评审内容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>方向</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>Reporter_Direction</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Reporter_DirectionCode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Contract_MoneyMode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Contract_EndTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Contract_StartTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Contract_Number</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Contract_SecretTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Contract_Entrust_UnitName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Contract_Entrust_UnitType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Contract_Entrust_JuridicalPerson</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Contract_Entrust_Linkman</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Contract_Entrust_LinkmanTelephone</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Contract_Entrust_Address</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Contract_Entrust_ZipCode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Contract_Entrust_OrgCode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Contract_Entrust_DutyParagraph</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Contract_Entrust_AccountName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Contract_Entrust_AccountBank</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Contract_Entrust_AccountNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Contract_Entrust_MoneyPerson</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Contract_Entrust_MoneyPersonTelephone</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Contract_Undertake_UnitName</t>
-  </si>
-  <si>
-    <t>Contract_Undertake_UnitType</t>
-  </si>
-  <si>
-    <t>Contract_Undertake_JuridicalPerson</t>
-  </si>
-  <si>
-    <t>Contract_Undertake_Linkman</t>
-  </si>
-  <si>
-    <t>Contract_Undertake_LinkmanTelephone</t>
-  </si>
-  <si>
-    <t>Contract_Undertake_Address</t>
-  </si>
-  <si>
-    <t>Contract_Undertake_ZipCode</t>
-  </si>
-  <si>
-    <t>Contract_Undertake_OrgCode</t>
-  </si>
-  <si>
-    <t>Contract_Undertake_DutyParagraph</t>
-  </si>
-  <si>
-    <t>Contract_Undertake_AccountName</t>
-  </si>
-  <si>
-    <t>Contract_Undertake_AccountBank</t>
-  </si>
-  <si>
-    <t>Contract_Undertake_AccountNo</t>
-  </si>
-  <si>
-    <t>Contract_Undertake_MoneyPerson</t>
-  </si>
-  <si>
-    <t>Contract_Undertake_MoneyPersonTelephone</t>
-  </si>
-  <si>
-    <t>项目表ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>课题名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SubjectName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(700)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>课题金额</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>money</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>研究目标</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>研究内容</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>参加单位分工</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目表ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>课题表ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>身份证号码</t>
-  </si>
-  <si>
-    <t>性别</t>
-  </si>
-  <si>
-    <t>职务/职称</t>
-  </si>
-  <si>
-    <t>专业(技术方向)</t>
-  </si>
-  <si>
-    <t>每年投入时间（月）</t>
-  </si>
-  <si>
-    <t>任务分工</t>
-  </si>
-  <si>
-    <t>项目中职务</t>
-  </si>
-  <si>
-    <t>是否为项目负责人</t>
-  </si>
-  <si>
-    <t>nvarchar(100)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TaskContent</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>JobInProject</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsProjectMaster</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PersonIDCard</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PersonSex</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PersonJob</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PersonSpecialty</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PersonName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(300)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>(研究目标，研究内容等对于建议书来说存文件链接)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作单位名称</t>
-  </si>
-  <si>
-    <t>WorkUnit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TotalMoney</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>WorkDest</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>WorkContent</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>WorkTask</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>出生年月</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reporter_Birthday</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>座机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reporter_Telephone</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(300)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reporter_Mobilephone</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>通信地址</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reporter_Address</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作单位通信地址</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reporter_WorkUnit_Address</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作单位联系人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reporter_WorkUnit_Linkman</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作单位联系电话</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reporter_WorkUnit_LinkmanTelephone</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CatalogType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CatalogVersion</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>关键字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Keywords</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属领域</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Domains</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>负责单位</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>负责单位所属部门</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>负责单位所属地点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DutyUnit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DutyUnitOrg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DutyUnitAddress</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(700)</t>
-  </si>
-  <si>
-    <t>项目编号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>研究周期</t>
-  </si>
-  <si>
-    <t>ProjectNumber</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TotalTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Telephone</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mobilephone</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>人员表ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DictID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>附加数据</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DictName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DictValue</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DictTag</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(700)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>父节点ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ParentDictID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DictType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
-  </si>
-  <si>
-    <t>阶段目标与研究内容</t>
-  </si>
-  <si>
-    <t>阶段成果考核方式</t>
-  </si>
-  <si>
-    <t>拨付条件</t>
-  </si>
-  <si>
-    <t>预计时间</t>
-  </si>
-  <si>
-    <t>经费金额</t>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MSID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>WSID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>money</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DestAndContent</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResultMethod</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SendRule</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>WillTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MemoText</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>WorkTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(300)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(300)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SMValue</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UMID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UMName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UMValue</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目牵头单位</t>
-  </si>
-  <si>
-    <t>项目总负责人</t>
-  </si>
-  <si>
-    <t>项目总经费</t>
-  </si>
-  <si>
-    <t>项目到位经费</t>
-  </si>
-  <si>
-    <t>项目办公室职务</t>
-  </si>
-  <si>
-    <t>单位</t>
-  </si>
-  <si>
-    <t>联系电话</t>
-  </si>
-  <si>
-    <t>课题负责单位</t>
-  </si>
-  <si>
-    <t>课题合同总价款</t>
-  </si>
-  <si>
-    <t>课题应拨经费</t>
-  </si>
-  <si>
-    <t>课题经费拨付时间</t>
-  </si>
-  <si>
-    <t>课题已拨经费</t>
-  </si>
-  <si>
-    <t>课题支出经费</t>
-  </si>
-  <si>
-    <t>课题应拨未拨经费</t>
-  </si>
-  <si>
-    <t>WorkUnit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProjectMaster</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TotalMoney</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TotalMoneyNow</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(300)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>money</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PersonName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PersonJob</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PersonUnit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>WorkDeskJob</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PersonPhone</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ModuleName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ModuleValue</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SubjectWorkUnit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SubjectTotalMoney</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SubjectSendMoney</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SubjectSendTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SubjectSendedMoney</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SubjectUseMoney</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SubjectNoSendMoney</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>money</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目领域</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划批次</t>
-  </si>
-  <si>
-    <t>ProjectRange</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TaskNumber</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>立项选题评议</t>
-  </si>
-  <si>
-    <t>立项审核</t>
-  </si>
-  <si>
-    <t>立项复议</t>
-  </si>
-  <si>
-    <t>合同查查等级</t>
-  </si>
-  <si>
-    <t>合同审核等级</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>OKQuestionMemo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>OKCheckA</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>OKCheckB</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ContactCheckLevelA</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ContactCheckLevelB</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Memo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NodeID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProjectName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NodeWillTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>节点的评估时间</t>
-  </si>
-  <si>
-    <t>评估意见</t>
-  </si>
-  <si>
-    <t>评估等级</t>
-  </si>
-  <si>
-    <t>评估专家</t>
-  </si>
-  <si>
-    <t>WillContent</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>WillLevel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>WillWorker</t>
+    <t>职称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDirection</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部职务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TInnerJob</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TJobTopic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tsource</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1521,7 +1640,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1584,7 +1703,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1594,7 +1713,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -1607,10 +1726,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
@@ -1665,7 +1784,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -1688,7 +1807,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -1701,10 +1820,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B5" t="s">
         <v>276</v>
-      </c>
-      <c r="B5" t="s">
-        <v>277</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -1714,65 +1833,65 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
+        <v>277</v>
+      </c>
+      <c r="B6" t="s">
         <v>278</v>
       </c>
-      <c r="B6" t="s">
-        <v>279</v>
-      </c>
       <c r="C6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="2"/>
@@ -1824,7 +1943,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -1847,7 +1966,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -1860,10 +1979,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B5" t="s">
         <v>276</v>
-      </c>
-      <c r="B5" t="s">
-        <v>277</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -1873,36 +1992,36 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
@@ -1912,10 +2031,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
@@ -1925,10 +2044,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C10" t="s">
         <v>26</v>
@@ -1981,7 +2100,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -2004,7 +2123,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -2017,10 +2136,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B5" t="s">
         <v>276</v>
-      </c>
-      <c r="B5" t="s">
-        <v>277</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -2030,26 +2149,26 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
@@ -2099,7 +2218,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -2122,7 +2241,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -2135,10 +2254,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B5" t="s">
         <v>276</v>
-      </c>
-      <c r="B5" t="s">
-        <v>277</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -2148,26 +2267,26 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
@@ -2183,7 +2302,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2218,7 +2337,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -2241,7 +2360,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -2254,10 +2373,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B5" t="s">
         <v>276</v>
-      </c>
-      <c r="B5" t="s">
-        <v>277</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -2267,7 +2386,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -2280,91 +2399,91 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="2"/>
@@ -2376,12 +2495,301 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C3" t="s">
+        <v>296</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C4" t="s">
+        <v>296</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C6" t="s">
+        <v>296</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>306</v>
+      </c>
+      <c r="B7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C7" t="s">
+        <v>296</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>314</v>
+      </c>
+      <c r="B8" t="s">
+        <v>319</v>
+      </c>
+      <c r="C8" t="s">
+        <v>296</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>307</v>
+      </c>
+      <c r="B9" t="s">
+        <v>293</v>
+      </c>
+      <c r="C9" t="s">
+        <v>296</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>308</v>
+      </c>
+      <c r="B10" t="s">
+        <v>294</v>
+      </c>
+      <c r="C10" t="s">
+        <v>296</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>312</v>
+      </c>
+      <c r="B11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C11" t="s">
+        <v>296</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>315</v>
+      </c>
+      <c r="B12" t="s">
+        <v>320</v>
+      </c>
+      <c r="C12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>317</v>
+      </c>
+      <c r="B13" t="s">
+        <v>318</v>
+      </c>
+      <c r="C13" t="s">
+        <v>296</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C4" t="s">
+        <v>299</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2478,10 +2886,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" t="s">
         <v>160</v>
-      </c>
-      <c r="B7" t="s">
-        <v>161</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
@@ -2491,10 +2899,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" t="s">
         <v>162</v>
-      </c>
-      <c r="B8" t="s">
-        <v>163</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
@@ -2504,10 +2912,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -2517,10 +2925,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
@@ -2530,10 +2938,10 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
@@ -2543,10 +2951,10 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -2556,23 +2964,23 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B13" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" t="s">
         <v>174</v>
-      </c>
-      <c r="C13" t="s">
-        <v>175</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
@@ -2582,10 +2990,10 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
@@ -2595,10 +3003,10 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C16" t="s">
         <v>26</v>
@@ -2608,10 +3016,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C17" t="s">
         <v>26</v>
@@ -2621,10 +3029,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
@@ -2634,10 +3042,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -2647,10 +3055,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C20" t="s">
         <v>26</v>
@@ -2660,10 +3068,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B21" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C21" t="s">
         <v>26</v>
@@ -2694,7 +3102,7 @@
         <v>33</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>69</v>
+        <v>313</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>27</v>
@@ -2707,7 +3115,7 @@
         <v>34</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>23</v>
@@ -2720,7 +3128,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>23</v>
@@ -2733,7 +3141,7 @@
         <v>35</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>65</v>
@@ -2746,7 +3154,7 @@
         <v>36</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>66</v>
@@ -2759,7 +3167,7 @@
         <v>37</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>67</v>
@@ -2772,7 +3180,7 @@
         <v>38</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>26</v>
@@ -2785,7 +3193,7 @@
         <v>39</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>26</v>
@@ -2798,7 +3206,7 @@
         <v>40</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>26</v>
@@ -2811,7 +3219,7 @@
         <v>41</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>26</v>
@@ -2824,7 +3232,7 @@
         <v>42</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>26</v>
@@ -2837,7 +3245,7 @@
         <v>43</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>26</v>
@@ -2850,7 +3258,7 @@
         <v>44</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>26</v>
@@ -2863,7 +3271,7 @@
         <v>45</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>26</v>
@@ -2876,7 +3284,7 @@
         <v>46</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>26</v>
@@ -2889,7 +3297,7 @@
         <v>47</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>26</v>
@@ -2902,7 +3310,7 @@
         <v>48</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>26</v>
@@ -2915,7 +3323,7 @@
         <v>49</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>26</v>
@@ -2928,7 +3336,7 @@
         <v>50</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>26</v>
@@ -2941,7 +3349,7 @@
         <v>51</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>26</v>
@@ -2954,7 +3362,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>26</v>
@@ -2967,7 +3375,7 @@
         <v>52</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>26</v>
@@ -2980,7 +3388,7 @@
         <v>53</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>26</v>
@@ -2993,7 +3401,7 @@
         <v>54</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>26</v>
@@ -3006,7 +3414,7 @@
         <v>55</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>26</v>
@@ -3019,7 +3427,7 @@
         <v>56</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>26</v>
@@ -3032,7 +3440,7 @@
         <v>57</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>26</v>
@@ -3045,7 +3453,7 @@
         <v>58</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>26</v>
@@ -3058,7 +3466,7 @@
         <v>59</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>26</v>
@@ -3071,7 +3479,7 @@
         <v>60</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>26</v>
@@ -3084,7 +3492,7 @@
         <v>61</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>26</v>
@@ -3097,7 +3505,7 @@
         <v>62</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>26</v>
@@ -3110,7 +3518,7 @@
         <v>63</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>26</v>
@@ -3123,7 +3531,7 @@
         <v>64</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>26</v>
@@ -3136,7 +3544,7 @@
         <v>56</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>26</v>
@@ -3214,7 +3622,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -3227,75 +3635,75 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" t="s">
         <v>105</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>106</v>
-      </c>
-      <c r="C5" t="s">
-        <v>107</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" t="s">
         <v>108</v>
-      </c>
-      <c r="B6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" t="s">
-        <v>109</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
@@ -3305,10 +3713,10 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
@@ -3318,10 +3726,10 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -3331,7 +3739,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="C15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3403,7 +3811,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -3416,7 +3824,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -3429,10 +3837,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
@@ -3442,10 +3850,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
@@ -3455,10 +3863,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -3468,10 +3876,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -3481,10 +3889,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
@@ -3494,7 +3902,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B11" t="s">
         <v>32</v>
@@ -3507,10 +3915,10 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -3520,10 +3928,10 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -3533,23 +3941,23 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" t="s">
         <v>123</v>
-      </c>
-      <c r="B14" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" t="s">
-        <v>124</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" t="s">
         <v>135</v>
-      </c>
-      <c r="B15" t="s">
-        <v>136</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
@@ -3559,10 +3967,10 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
@@ -3572,10 +3980,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
@@ -3585,49 +3993,49 @@
     </row>
     <row r="19" spans="1:6" s="3" customFormat="1">
       <c r="A19" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>143</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1">
       <c r="A20" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" s="3" customFormat="1">
       <c r="A21" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>148</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" s="3" customFormat="1">
       <c r="A22" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>26</v>
@@ -3637,10 +4045,10 @@
     </row>
     <row r="23" spans="1:6" s="3" customFormat="1">
       <c r="A23" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>26</v>
@@ -3650,10 +4058,10 @@
     </row>
     <row r="24" spans="1:6" s="3" customFormat="1">
       <c r="A24" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>26</v>
@@ -3663,10 +4071,10 @@
     </row>
     <row r="25" spans="1:6" s="3" customFormat="1">
       <c r="A25" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>26</v>
@@ -3720,7 +4128,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -3743,7 +4151,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -3756,7 +4164,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -3769,7 +4177,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -3782,62 +4190,62 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7" t="s">
         <v>191</v>
       </c>
-      <c r="B7" t="s">
-        <v>192</v>
-      </c>
       <c r="C7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" t="s">
         <v>187</v>
-      </c>
-      <c r="C10" t="s">
-        <v>188</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B11" t="s">
         <v>189</v>
-      </c>
-      <c r="B11" t="s">
-        <v>190</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -3892,7 +4300,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -3915,7 +4323,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -3928,39 +4336,39 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
@@ -3976,7 +4384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
@@ -4008,10 +4416,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" t="s">
         <v>200</v>
-      </c>
-      <c r="B2" t="s">
-        <v>201</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -4034,7 +4442,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -4047,62 +4455,62 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B7" t="s">
         <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C9" t="s">
         <v>66</v>
@@ -4112,39 +4520,39 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="2"/>
@@ -4195,7 +4603,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -4218,7 +4626,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -4231,7 +4639,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -4244,26 +4652,26 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="B7" t="s">
-        <v>219</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>213</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -4314,7 +4722,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -4337,7 +4745,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -4350,39 +4758,39 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B5" t="s">
         <v>215</v>
       </c>
-      <c r="B5" t="s">
-        <v>216</v>
-      </c>
       <c r="C5" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="B7" t="s">
-        <v>222</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>213</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>

--- a/Code/PublicManager/PublicManager/汇总数据表.xlsx
+++ b/Code/PublicManager/PublicManager/汇总数据表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="704" firstSheet="13" activeTab="14"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="704" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="索引表(Catalog)" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="327">
   <si>
     <t>中文名</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1213,6 +1213,30 @@
   </si>
   <si>
     <t>Tsource</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责单位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责单位常用名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DutyNormalUnit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>保密等级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SecretLevel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NodeID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1749,7 +1773,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1908,7 +1932,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2499,8 +2523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2781,15 +2805,16 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2912,7 +2937,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>163</v>
+        <v>321</v>
       </c>
       <c r="B9" t="s">
         <v>166</v>
@@ -2925,10 +2950,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>164</v>
+        <v>322</v>
       </c>
       <c r="B10" t="s">
-        <v>167</v>
+        <v>323</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
@@ -2938,10 +2963,10 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
@@ -2951,10 +2976,10 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B12" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -2964,36 +2989,36 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C13" t="s">
-        <v>174</v>
+        <v>27</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="5" t="s">
-        <v>259</v>
+      <c r="A14" t="s">
+        <v>171</v>
       </c>
       <c r="B14" t="s">
-        <v>261</v>
+        <v>173</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>174</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C15" t="s">
         <v>27</v>
@@ -3003,23 +3028,23 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B16" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C17" t="s">
         <v>26</v>
@@ -3029,10 +3054,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
@@ -3042,10 +3067,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -3055,10 +3080,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C20" t="s">
         <v>26</v>
@@ -3068,10 +3093,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B21" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C21" t="s">
         <v>26</v>
@@ -3080,120 +3105,120 @@
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="5"/>
+      <c r="A22" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B22" t="s">
+        <v>274</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="24" spans="1:6" s="3" customFormat="1">
-      <c r="A24" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="1"/>
+    <row r="23" spans="1:6">
+      <c r="A23" s="5"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
     </row>
     <row r="25" spans="1:6" s="3" customFormat="1">
       <c r="A25" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>313</v>
+        <v>68</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" s="3" customFormat="1">
       <c r="A26" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>69</v>
+        <v>313</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="28" spans="1:6" s="3" customFormat="1">
-      <c r="A28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="3" t="s">
+    <row r="27" spans="1:6" s="3" customFormat="1">
+      <c r="A27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="1"/>
     </row>
     <row r="29" spans="1:6" s="3" customFormat="1">
       <c r="A29" s="3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" s="3" customFormat="1">
       <c r="A30" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" s="3" customFormat="1">
       <c r="A31" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" s="3" customFormat="1">
       <c r="A32" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" s="3" customFormat="1">
       <c r="A33" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>26</v>
@@ -3203,10 +3228,10 @@
     </row>
     <row r="34" spans="1:6" s="3" customFormat="1">
       <c r="A34" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>26</v>
@@ -3216,10 +3241,10 @@
     </row>
     <row r="35" spans="1:6" s="3" customFormat="1">
       <c r="A35" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>26</v>
@@ -3229,10 +3254,10 @@
     </row>
     <row r="36" spans="1:6" s="3" customFormat="1">
       <c r="A36" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>26</v>
@@ -3242,10 +3267,10 @@
     </row>
     <row r="37" spans="1:6" s="3" customFormat="1">
       <c r="A37" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>26</v>
@@ -3255,10 +3280,10 @@
     </row>
     <row r="38" spans="1:6" s="3" customFormat="1">
       <c r="A38" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>26</v>
@@ -3268,10 +3293,10 @@
     </row>
     <row r="39" spans="1:6" s="3" customFormat="1">
       <c r="A39" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>26</v>
@@ -3281,10 +3306,10 @@
     </row>
     <row r="40" spans="1:6" s="3" customFormat="1">
       <c r="A40" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>26</v>
@@ -3294,10 +3319,10 @@
     </row>
     <row r="41" spans="1:6" s="3" customFormat="1">
       <c r="A41" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>26</v>
@@ -3307,10 +3332,10 @@
     </row>
     <row r="42" spans="1:6" s="3" customFormat="1">
       <c r="A42" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>26</v>
@@ -3320,10 +3345,10 @@
     </row>
     <row r="43" spans="1:6" s="3" customFormat="1">
       <c r="A43" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>26</v>
@@ -3333,10 +3358,10 @@
     </row>
     <row r="44" spans="1:6" s="3" customFormat="1">
       <c r="A44" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>26</v>
@@ -3346,10 +3371,10 @@
     </row>
     <row r="45" spans="1:6" s="3" customFormat="1">
       <c r="A45" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>26</v>
@@ -3359,10 +3384,10 @@
     </row>
     <row r="46" spans="1:6" s="3" customFormat="1">
       <c r="A46" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>26</v>
@@ -3372,10 +3397,10 @@
     </row>
     <row r="47" spans="1:6" s="3" customFormat="1">
       <c r="A47" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>26</v>
@@ -3385,10 +3410,10 @@
     </row>
     <row r="48" spans="1:6" s="3" customFormat="1">
       <c r="A48" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>26</v>
@@ -3398,10 +3423,10 @@
     </row>
     <row r="49" spans="1:6" s="3" customFormat="1">
       <c r="A49" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>26</v>
@@ -3411,10 +3436,10 @@
     </row>
     <row r="50" spans="1:6" s="3" customFormat="1">
       <c r="A50" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>26</v>
@@ -3424,10 +3449,10 @@
     </row>
     <row r="51" spans="1:6" s="3" customFormat="1">
       <c r="A51" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>26</v>
@@ -3437,10 +3462,10 @@
     </row>
     <row r="52" spans="1:6" s="3" customFormat="1">
       <c r="A52" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>26</v>
@@ -3450,10 +3475,10 @@
     </row>
     <row r="53" spans="1:6" s="3" customFormat="1">
       <c r="A53" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>26</v>
@@ -3463,10 +3488,10 @@
     </row>
     <row r="54" spans="1:6" s="3" customFormat="1">
       <c r="A54" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>26</v>
@@ -3476,10 +3501,10 @@
     </row>
     <row r="55" spans="1:6" s="3" customFormat="1">
       <c r="A55" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>26</v>
@@ -3489,10 +3514,10 @@
     </row>
     <row r="56" spans="1:6" s="3" customFormat="1">
       <c r="A56" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>26</v>
@@ -3502,10 +3527,10 @@
     </row>
     <row r="57" spans="1:6" s="3" customFormat="1">
       <c r="A57" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>26</v>
@@ -3515,10 +3540,10 @@
     </row>
     <row r="58" spans="1:6" s="3" customFormat="1">
       <c r="A58" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>26</v>
@@ -3528,10 +3553,10 @@
     </row>
     <row r="59" spans="1:6" s="3" customFormat="1">
       <c r="A59" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>26</v>
@@ -3541,16 +3566,29 @@
     </row>
     <row r="60" spans="1:6" s="3" customFormat="1">
       <c r="A60" s="3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="2"/>
+    </row>
+    <row r="61" spans="1:6" s="3" customFormat="1">
+      <c r="A61" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3561,10 +3599,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" activeCellId="1" sqref="A3:XFD3 A4:XFD4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3648,36 +3686,36 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>324</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>325</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C8" t="s">
         <v>106</v>
@@ -3687,36 +3725,36 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C9" t="s">
-        <v>169</v>
+        <v>106</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>163</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>169</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
@@ -3726,10 +3764,10 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -3737,8 +3775,21 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="15" spans="1:7">
-      <c r="C15" t="s">
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="C16" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3753,7 +3804,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4094,7 +4145,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4265,7 +4316,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD4"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4566,10 +4617,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4652,29 +4703,42 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>210</v>
+        <v>275</v>
       </c>
       <c r="B6" t="s">
-        <v>217</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>213</v>
+        <v>326</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -4685,10 +4749,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4771,32 +4835,46 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>210</v>
+        <v>275</v>
       </c>
       <c r="B6" t="s">
-        <v>220</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>213</v>
+        <v>276</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/Code/PublicManager/PublicManager/汇总数据表.xlsx
+++ b/Code/PublicManager/PublicManager/汇总数据表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="704" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="704" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="索引表(Catalog)" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="330">
   <si>
     <t>中文名</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1237,6 +1237,18 @@
   </si>
   <si>
     <t>NodeID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点序号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NodeIndex</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4316,7 +4328,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4433,9 +4445,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
@@ -4506,88 +4518,88 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>195</v>
+        <v>327</v>
       </c>
       <c r="B5" t="s">
-        <v>206</v>
+        <v>329</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>328</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C6" t="s">
-        <v>202</v>
+        <v>106</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>207</v>
       </c>
       <c r="C7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B8" t="s">
-        <v>208</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>203</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>280</v>
+        <v>198</v>
       </c>
       <c r="B9" t="s">
-        <v>279</v>
+        <v>208</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B10" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C10" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C11" t="s">
         <v>106</v>
@@ -4597,16 +4609,29 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C12" t="s">
         <v>106</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>283</v>
+      </c>
+      <c r="B13" t="s">
+        <v>286</v>
+      </c>
+      <c r="C13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -4751,7 +4776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>

--- a/Code/PublicManager/PublicManager/汇总数据表.xlsx
+++ b/Code/PublicManager/PublicManager/汇总数据表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="704" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="704" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="索引表(Catalog)" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="333">
   <si>
     <t>中文名</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1249,6 +1249,18 @@
   </si>
   <si>
     <t>NodeIndex</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否需要隐藏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsNeedHide</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要用于建议书</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1256,7 +1268,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1302,8 +1314,16 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1325,8 +1345,14 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1349,6 +1375,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1362,13 +1414,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -1673,16 +1730,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A7" sqref="A7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1772,6 +1830,22 @@
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>330</v>
+      </c>
+      <c r="B7" t="s">
+        <v>331</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" t="s">
+        <v>332</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2823,10 +2897,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2834,6 +2908,7 @@
     <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.25" customWidth="1"/>
     <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3051,7 +3126,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:7">
       <c r="A17" s="5" t="s">
         <v>263</v>
       </c>
@@ -3064,7 +3139,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7">
       <c r="A18" s="5" t="s">
         <v>264</v>
       </c>
@@ -3077,7 +3152,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7">
       <c r="A19" s="5" t="s">
         <v>265</v>
       </c>
@@ -3090,7 +3165,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:7">
       <c r="A20" s="5" t="s">
         <v>266</v>
       </c>
@@ -3103,7 +3178,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:7">
       <c r="A21" s="5" t="s">
         <v>267</v>
       </c>
@@ -3116,7 +3191,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:7">
       <c r="A22" s="5" t="s">
         <v>268</v>
       </c>
@@ -3129,147 +3204,143 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="5"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="25" spans="1:6" s="3" customFormat="1">
-      <c r="A25" s="3" t="s">
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>330</v>
+      </c>
+      <c r="B23" t="s">
+        <v>331</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="D24" s="10"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="D25" s="10"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="D26" s="10"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="1:7" s="3" customFormat="1">
+      <c r="A28" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" s="3" customFormat="1">
-      <c r="A26" s="3" t="s">
+      <c r="E28" s="8"/>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:7" s="3" customFormat="1">
+      <c r="A29" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" s="3" customFormat="1">
-      <c r="A27" s="3" t="s">
+      <c r="E29" s="2"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" s="3" customFormat="1">
+      <c r="A30" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="29" spans="1:6" s="3" customFormat="1">
-      <c r="A29" s="3" t="s">
+      <c r="E30" s="2"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="32" spans="1:7" s="3" customFormat="1">
+      <c r="A32" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" s="3" customFormat="1">
-      <c r="A30" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" s="3" customFormat="1">
-      <c r="A31" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" s="3" customFormat="1">
-      <c r="A32" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" s="3" customFormat="1">
       <c r="A33" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" s="3" customFormat="1">
       <c r="A34" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" s="3" customFormat="1">
       <c r="A35" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" s="3" customFormat="1">
       <c r="A36" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>26</v>
@@ -3279,10 +3350,10 @@
     </row>
     <row r="37" spans="1:6" s="3" customFormat="1">
       <c r="A37" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>26</v>
@@ -3292,10 +3363,10 @@
     </row>
     <row r="38" spans="1:6" s="3" customFormat="1">
       <c r="A38" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>26</v>
@@ -3305,10 +3376,10 @@
     </row>
     <row r="39" spans="1:6" s="3" customFormat="1">
       <c r="A39" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>26</v>
@@ -3318,10 +3389,10 @@
     </row>
     <row r="40" spans="1:6" s="3" customFormat="1">
       <c r="A40" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>26</v>
@@ -3331,10 +3402,10 @@
     </row>
     <row r="41" spans="1:6" s="3" customFormat="1">
       <c r="A41" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>26</v>
@@ -3344,10 +3415,10 @@
     </row>
     <row r="42" spans="1:6" s="3" customFormat="1">
       <c r="A42" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>26</v>
@@ -3357,10 +3428,10 @@
     </row>
     <row r="43" spans="1:6" s="3" customFormat="1">
       <c r="A43" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>26</v>
@@ -3370,10 +3441,10 @@
     </row>
     <row r="44" spans="1:6" s="3" customFormat="1">
       <c r="A44" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>26</v>
@@ -3383,10 +3454,10 @@
     </row>
     <row r="45" spans="1:6" s="3" customFormat="1">
       <c r="A45" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>26</v>
@@ -3396,10 +3467,10 @@
     </row>
     <row r="46" spans="1:6" s="3" customFormat="1">
       <c r="A46" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>26</v>
@@ -3409,10 +3480,10 @@
     </row>
     <row r="47" spans="1:6" s="3" customFormat="1">
       <c r="A47" s="3" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>26</v>
@@ -3422,10 +3493,10 @@
     </row>
     <row r="48" spans="1:6" s="3" customFormat="1">
       <c r="A48" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>26</v>
@@ -3435,10 +3506,10 @@
     </row>
     <row r="49" spans="1:6" s="3" customFormat="1">
       <c r="A49" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>26</v>
@@ -3448,10 +3519,10 @@
     </row>
     <row r="50" spans="1:6" s="3" customFormat="1">
       <c r="A50" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>26</v>
@@ -3461,10 +3532,10 @@
     </row>
     <row r="51" spans="1:6" s="3" customFormat="1">
       <c r="A51" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>26</v>
@@ -3474,10 +3545,10 @@
     </row>
     <row r="52" spans="1:6" s="3" customFormat="1">
       <c r="A52" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>26</v>
@@ -3487,10 +3558,10 @@
     </row>
     <row r="53" spans="1:6" s="3" customFormat="1">
       <c r="A53" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>26</v>
@@ -3500,10 +3571,10 @@
     </row>
     <row r="54" spans="1:6" s="3" customFormat="1">
       <c r="A54" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>26</v>
@@ -3513,10 +3584,10 @@
     </row>
     <row r="55" spans="1:6" s="3" customFormat="1">
       <c r="A55" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>26</v>
@@ -3526,10 +3597,10 @@
     </row>
     <row r="56" spans="1:6" s="3" customFormat="1">
       <c r="A56" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>26</v>
@@ -3539,10 +3610,10 @@
     </row>
     <row r="57" spans="1:6" s="3" customFormat="1">
       <c r="A57" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>26</v>
@@ -3552,10 +3623,10 @@
     </row>
     <row r="58" spans="1:6" s="3" customFormat="1">
       <c r="A58" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>26</v>
@@ -3565,10 +3636,10 @@
     </row>
     <row r="59" spans="1:6" s="3" customFormat="1">
       <c r="A59" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>26</v>
@@ -3578,10 +3649,10 @@
     </row>
     <row r="60" spans="1:6" s="3" customFormat="1">
       <c r="A60" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>26</v>
@@ -3591,16 +3662,55 @@
     </row>
     <row r="61" spans="1:6" s="3" customFormat="1">
       <c r="A61" s="3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="1:6" s="3" customFormat="1">
+      <c r="A62" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63" spans="1:6" s="3" customFormat="1">
+      <c r="A63" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E63" s="1"/>
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="1:6" s="3" customFormat="1">
+      <c r="A64" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -4447,7 +4557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>

--- a/Code/PublicManager/PublicManager/汇总数据表.xlsx
+++ b/Code/PublicManager/PublicManager/汇总数据表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="704" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="704" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="索引表(Catalog)" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="335">
   <si>
     <t>中文名</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1261,6 +1261,14 @@
   </si>
   <si>
     <t>主要用于建议书</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责单位常用名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DutyNormalUnit</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2899,7 +2907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
@@ -3721,10 +3729,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3886,10 +3894,10 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>164</v>
+        <v>333</v>
       </c>
       <c r="B12" t="s">
-        <v>167</v>
+        <v>334</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -3899,10 +3907,10 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
@@ -3910,8 +3918,21 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="16" spans="1:7">
-      <c r="C16" t="s">
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B14" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
         <v>133</v>
       </c>
     </row>

--- a/Code/PublicManager/PublicManager/汇总数据表.xlsx
+++ b/Code/PublicManager/PublicManager/汇总数据表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="704" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="704"/>
   </bookViews>
   <sheets>
     <sheet name="索引表(Catalog)" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="339">
   <si>
     <t>中文名</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1269,6 +1269,22 @@
   </si>
   <si>
     <t>DutyNormalUnit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zip文件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CatalogZipFile</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解压目录</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CatalogDecompressDir</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1738,16 +1754,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1854,6 +1871,32 @@
       <c r="G7" t="s">
         <v>332</v>
       </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>335</v>
+      </c>
+      <c r="B8" t="s">
+        <v>336</v>
+      </c>
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>337</v>
+      </c>
+      <c r="B9" t="s">
+        <v>338</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3731,8 +3774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/Code/PublicManager/PublicManager/汇总数据表.xlsx
+++ b/Code/PublicManager/PublicManager/汇总数据表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="704"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="704" firstSheet="13" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="索引表(Catalog)" sheetId="1" r:id="rId1"/>
@@ -23,13 +23,14 @@
     <sheet name="课题经费拨付与支出情况(Contact_Table5)" sheetId="14" r:id="rId14"/>
     <sheet name="专家表(Teacher)" sheetId="15" r:id="rId15"/>
     <sheet name="专家评审表(TeacherComment)" sheetId="16" r:id="rId16"/>
+    <sheet name="归一单位表(NormalUnitDict)" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="346">
   <si>
     <t>中文名</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1285,6 +1286,32 @@
   </si>
   <si>
     <t>CatalogDecompressDir</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作单位常用名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkNormalUnit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位法人名称</t>
+  </si>
+  <si>
+    <t>归一化名称</t>
+  </si>
+  <si>
+    <t>DutyUnit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DutyNormalUnit</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1756,8 +1783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2463,7 +2490,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2858,7 +2885,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2946,12 +2973,119 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B5" t="s">
+        <v>344</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>343</v>
+      </c>
+      <c r="B6" t="s">
+        <v>345</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3987,10 +4121,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4204,10 +4338,10 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>175</v>
+        <v>339</v>
       </c>
       <c r="B16" t="s">
-        <v>177</v>
+        <v>340</v>
       </c>
       <c r="C16" t="s">
         <v>27</v>
@@ -4217,10 +4351,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
@@ -4228,38 +4362,38 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="19" spans="1:6" s="3" customFormat="1">
-      <c r="A19" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="1"/>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>176</v>
+      </c>
+      <c r="B18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
     </row>
     <row r="20" spans="1:6" s="3" customFormat="1">
       <c r="A20" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" s="3" customFormat="1">
       <c r="A21" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>145</v>
@@ -4269,23 +4403,23 @@
     </row>
     <row r="22" spans="1:6" s="3" customFormat="1">
       <c r="A22" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" s="3" customFormat="1">
       <c r="A23" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>26</v>
@@ -4295,10 +4429,10 @@
     </row>
     <row r="24" spans="1:6" s="3" customFormat="1">
       <c r="A24" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>26</v>
@@ -4308,16 +4442,29 @@
     </row>
     <row r="25" spans="1:6" s="3" customFormat="1">
       <c r="A25" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" s="3" customFormat="1">
+      <c r="A26" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Code/PublicManager/PublicManager/汇总数据表.xlsx
+++ b/Code/PublicManager/PublicManager/汇总数据表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="704" firstSheet="13" activeTab="16"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="704"/>
   </bookViews>
   <sheets>
     <sheet name="索引表(Catalog)" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="350">
   <si>
     <t>中文名</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1312,6 +1312,22 @@
   </si>
   <si>
     <t>DutyNormalUnit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否完全匹配了归一化单位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsCheckUnitComplete</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsCheckUnitComplete</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(300)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1781,15 +1797,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="23.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
@@ -1924,6 +1940,20 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B10" t="s">
+        <v>347</v>
+      </c>
+      <c r="C10" t="s">
+        <v>349</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2977,7 +3007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -3085,12 +3115,12 @@
   <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="A24" sqref="A24:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.25" customWidth="1"/>
     <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
@@ -3406,9 +3436,18 @@
       </c>
     </row>
     <row r="24" spans="1:7">
+      <c r="A24" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B24" t="s">
+        <v>348</v>
+      </c>
+      <c r="C24" t="s">
+        <v>349</v>
+      </c>
       <c r="D24" s="10"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7">
